--- a/propstuff/efficiency.xlsx
+++ b/propstuff/efficiency.xlsx
@@ -370,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,6 +394,16 @@
           <t>omega</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -407,6 +417,12 @@
       <c r="C2" t="n">
         <v>588.5885885885887</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.04259948960463247</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.003585046663004071</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -420,6 +436,12 @@
       <c r="C3" t="n">
         <v>452.4524524524525</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.04437241651101124</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.004073385171399524</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -433,6 +455,12 @@
       <c r="C4" t="n">
         <v>556.5565565565566</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.06112484324820355</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.004900110778140477</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -446,6 +474,12 @@
       <c r="C5" t="n">
         <v>600.6006006006006</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.09660631793499322</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.009885997899631998</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -459,6 +493,12 @@
       <c r="C6" t="n">
         <v>364.3643643643644</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.06367804497753587</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.007289909058333755</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -472,6 +512,12 @@
       <c r="C7" t="n">
         <v>496.4964964964965</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.05180124381971601</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00542329060271952</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -485,6 +531,12 @@
       <c r="C8" t="n">
         <v>432.4324324324324</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.06219365291714706</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.006236400139319514</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -498,6 +550,12 @@
       <c r="C9" t="n">
         <v>600.6006006006006</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.05975276840926993</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.005141706302378984</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -511,6 +569,12 @@
       <c r="C10" t="n">
         <v>492.4924924924925</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.02747205749499003</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002791320919666748</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -524,6 +588,12 @@
       <c r="C11" t="n">
         <v>492.4924924924925</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.04097747548375909</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.00397485668302129</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -537,6 +607,12 @@
       <c r="C12" t="n">
         <v>704.7047047047048</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.05648016517282918</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.004044755502208292</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -550,6 +626,12 @@
       <c r="C13" t="n">
         <v>540.5405405405406</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.0863076797872324</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.007472491385209921</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -563,6 +645,12 @@
       <c r="C14" t="n">
         <v>372.3723723723724</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.01563801136285317</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002117098560970808</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -576,6 +664,12 @@
       <c r="C15" t="n">
         <v>556.5565565565566</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.06142199551218153</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.005046809936005816</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -589,6 +683,12 @@
       <c r="C16" t="n">
         <v>668.6686686686687</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.1252634616208854</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01165334390377207</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -602,6 +702,12 @@
       <c r="C17" t="n">
         <v>644.6446446446447</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.06399391414976599</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.004846690919499672</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -615,6 +721,12 @@
       <c r="C18" t="n">
         <v>496.4964964964965</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.03591316495448763</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.003458692606058334</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -628,6 +740,12 @@
       <c r="C19" t="n">
         <v>736.7367367367368</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.05511925665699768</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.003861050472519847</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -641,6 +759,12 @@
       <c r="C20" t="n">
         <v>500.5005005005006</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.08765938439697279</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.007996383942574561</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -654,6 +778,12 @@
       <c r="C21" t="n">
         <v>552.5525525525526</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.09262790008735722</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.007592512610603796</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -667,6 +797,12 @@
       <c r="C22" t="n">
         <v>572.5725725725727</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.0509069318036501</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.00401411006058596</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -680,6 +816,12 @@
       <c r="C23" t="n">
         <v>732.7327327327328</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.09256494407912681</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.006715086262615895</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -693,6 +835,12 @@
       <c r="C24" t="n">
         <v>424.4244244244244</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.02028780730026052</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002137235625729932</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -706,6 +854,12 @@
       <c r="C25" t="n">
         <v>456.4564564564565</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.05761990563150804</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.007309820270221959</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -719,6 +873,12 @@
       <c r="C26" t="n">
         <v>620.6206206206207</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.04683314863516016</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.004111659258041324</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -732,6 +892,12 @@
       <c r="C27" t="n">
         <v>552.5525525525526</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.05573532403273313</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.004382413156747433</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -745,6 +911,12 @@
       <c r="C28" t="n">
         <v>580.5805805805807</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.02778799324750759</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.002397233998575149</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -758,6 +930,12 @@
       <c r="C29" t="n">
         <v>496.4964964964965</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.05741623622241553</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.006780647676682868</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -771,6 +949,12 @@
       <c r="C30" t="n">
         <v>352.3523523523524</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.03520689799677285</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.004257826900234507</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -784,6 +968,12 @@
       <c r="C31" t="n">
         <v>412.4124124124124</v>
       </c>
+      <c r="D31" t="n">
+        <v>0.09986934559301804</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01161278329637161</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -797,6 +987,12 @@
       <c r="C32" t="n">
         <v>520.5205205205206</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.0873544257844632</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.009807821205841371</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -810,6 +1006,12 @@
       <c r="C33" t="n">
         <v>364.3643643643644</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.03799597067579822</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.004624191432084499</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -823,6 +1025,12 @@
       <c r="C34" t="n">
         <v>568.5685685685686</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.06099979973992091</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.005008400859378209</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -836,6 +1044,12 @@
       <c r="C35" t="n">
         <v>340.3403403403404</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.03498335528204413</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.004912146226641736</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -849,6 +1063,12 @@
       <c r="C36" t="n">
         <v>592.5925925925926</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.06836793947098084</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.006332999087705409</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -862,6 +1082,12 @@
       <c r="C37" t="n">
         <v>444.4444444444445</v>
       </c>
+      <c r="D37" t="n">
+        <v>0.05443123617995298</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.005618581746256705</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -875,6 +1101,12 @@
       <c r="C38" t="n">
         <v>548.5485485485486</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.06551091298042157</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.00518626712924766</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -888,6 +1120,12 @@
       <c r="C39" t="n">
         <v>544.5445445445446</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.09950528397485682</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.008285094320591876</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -901,6 +1139,12 @@
       <c r="C40" t="n">
         <v>416.4164164164164</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.03994029819257725</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.004208826061494801</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -914,6 +1158,12 @@
       <c r="C41" t="n">
         <v>484.4844844844845</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.04407946635099518</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.004621427308216288</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -927,6 +1177,12 @@
       <c r="C42" t="n">
         <v>820.8208208208209</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.07897535929116113</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.006819628073793097</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -940,6 +1196,12 @@
       <c r="C43" t="n">
         <v>556.5565565565566</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.05029565959706018</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.004211328171617207</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -953,6 +1215,12 @@
       <c r="C44" t="n">
         <v>624.6246246246246</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.02940333863404171</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.002392049184685171</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -966,6 +1234,12 @@
       <c r="C45" t="n">
         <v>388.3883883883884</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.04259195447588926</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.004878299914907082</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -979,6 +1253,12 @@
       <c r="C46" t="n">
         <v>744.7447447447448</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.1902303910198538</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01610292982988141</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -992,6 +1272,12 @@
       <c r="C47" t="n">
         <v>536.5365365365366</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.09966746977078914</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.008265842079261756</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1005,6 +1291,12 @@
       <c r="C48" t="n">
         <v>536.5365365365366</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.08639953826550016</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01200150783486581</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1018,6 +1310,12 @@
       <c r="C49" t="n">
         <v>376.3763763763764</v>
       </c>
+      <c r="D49" t="n">
+        <v>0.06253649870835479</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.007830795239413898</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1031,6 +1329,12 @@
       <c r="C50" t="n">
         <v>336.3363363363364</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.062984468813501</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.008007467130337328</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1044,6 +1348,12 @@
       <c r="C51" t="n">
         <v>764.7647647647648</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.06731786169105393</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.005337739333880537</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1057,6 +1367,12 @@
       <c r="C52" t="n">
         <v>416.4164164164164</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.04921251234806815</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.005008535633059164</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1070,6 +1386,12 @@
       <c r="C53" t="n">
         <v>540.5405405405406</v>
       </c>
+      <c r="D53" t="n">
+        <v>0.0804396708341531</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.008352383371244628</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1083,6 +1405,12 @@
       <c r="C54" t="n">
         <v>552.5525525525526</v>
       </c>
+      <c r="D54" t="n">
+        <v>0.07153501084087259</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.007925709691328376</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1096,6 +1424,12 @@
       <c r="C55" t="n">
         <v>572.5725725725727</v>
       </c>
+      <c r="D55" t="n">
+        <v>0.1014524713177723</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.008878241752735227</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1109,6 +1443,12 @@
       <c r="C56" t="n">
         <v>548.5485485485486</v>
       </c>
+      <c r="D56" t="n">
+        <v>0.02521293975013269</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.002477083868154406</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1122,6 +1462,12 @@
       <c r="C57" t="n">
         <v>332.3323323323324</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.06539114566768267</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.008200855170521881</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1135,6 +1481,12 @@
       <c r="C58" t="n">
         <v>664.6646646646648</v>
       </c>
+      <c r="D58" t="n">
+        <v>0.1152604090473936</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.009603158773686836</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1148,6 +1500,12 @@
       <c r="C59" t="n">
         <v>456.4564564564565</v>
       </c>
+      <c r="D59" t="n">
+        <v>0.03001496802086164</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.00290758186247792</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1161,6 +1519,12 @@
       <c r="C60" t="n">
         <v>752.7527527527528</v>
       </c>
+      <c r="D60" t="n">
+        <v>0.06023758626093467</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.003825261727010271</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1174,6 +1538,12 @@
       <c r="C61" t="n">
         <v>504.5045045045046</v>
       </c>
+      <c r="D61" t="n">
+        <v>0.08086097598123876</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.007265403065673297</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1187,6 +1557,12 @@
       <c r="C62" t="n">
         <v>640.6406406406406</v>
       </c>
+      <c r="D62" t="n">
+        <v>0.1080738043352661</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0109617468202884</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1200,6 +1576,12 @@
       <c r="C63" t="n">
         <v>404.4044044044044</v>
       </c>
+      <c r="D63" t="n">
+        <v>0.04401524900813641</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.004781800968627845</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1213,6 +1595,12 @@
       <c r="C64" t="n">
         <v>328.3283283283284</v>
       </c>
+      <c r="D64" t="n">
+        <v>0.03817487641528207</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.005593088116028333</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1226,6 +1614,12 @@
       <c r="C65" t="n">
         <v>496.4964964964965</v>
       </c>
+      <c r="D65" t="n">
+        <v>0.0654339684557516</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.006245135749116377</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1239,6 +1633,12 @@
       <c r="C66" t="n">
         <v>788.7887887887889</v>
       </c>
+      <c r="D66" t="n">
+        <v>0.06830093979193143</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.005355299289185527</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1252,6 +1652,12 @@
       <c r="C67" t="n">
         <v>560.5605605605606</v>
       </c>
+      <c r="D67" t="n">
+        <v>0.0424190952945874</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.005300275826972647</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1265,6 +1671,12 @@
       <c r="C68" t="n">
         <v>336.3363363363364</v>
       </c>
+      <c r="D68" t="n">
+        <v>0.06422226924568841</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.008058385004587797</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1278,6 +1690,12 @@
       <c r="C69" t="n">
         <v>296.2962962962963</v>
       </c>
+      <c r="D69" t="n">
+        <v>0.03272112177432903</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.004817103109525958</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1291,6 +1709,12 @@
       <c r="C70" t="n">
         <v>524.5245245245246</v>
       </c>
+      <c r="D70" t="n">
+        <v>0.04245549347971417</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.004178283091072228</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1304,6 +1728,12 @@
       <c r="C71" t="n">
         <v>688.6886886886888</v>
       </c>
+      <c r="D71" t="n">
+        <v>0.05992740152188477</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.005192466735104709</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1317,6 +1747,12 @@
       <c r="C72" t="n">
         <v>416.4164164164164</v>
       </c>
+      <c r="D72" t="n">
+        <v>0.0877376361094231</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.009279869596698994</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1330,6 +1766,12 @@
       <c r="C73" t="n">
         <v>492.4924924924925</v>
       </c>
+      <c r="D73" t="n">
+        <v>0.08106982400465473</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.008315520919331489</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1343,6 +1785,12 @@
       <c r="C74" t="n">
         <v>512.5125125125126</v>
       </c>
+      <c r="D74" t="n">
+        <v>0.08201428455582098</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.00918123712914772</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1356,6 +1804,12 @@
       <c r="C75" t="n">
         <v>504.5045045045046</v>
       </c>
+      <c r="D75" t="n">
+        <v>0.05040643823646934</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.005021324160512548</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1369,6 +1823,12 @@
       <c r="C76" t="n">
         <v>400.4004004004004</v>
       </c>
+      <c r="D76" t="n">
+        <v>0.02848037950660129</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.003766638838436478</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1382,6 +1842,12 @@
       <c r="C77" t="n">
         <v>612.6126126126127</v>
       </c>
+      <c r="D77" t="n">
+        <v>0.07129653388361595</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.005651759633690469</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1395,6 +1861,12 @@
       <c r="C78" t="n">
         <v>512.5125125125126</v>
       </c>
+      <c r="D78" t="n">
+        <v>0.03210081448374798</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.002593193878523602</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1408,6 +1880,12 @@
       <c r="C79" t="n">
         <v>756.7567567567568</v>
       </c>
+      <c r="D79" t="n">
+        <v>0.1198995436324335</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.01215301635049678</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1421,6 +1899,12 @@
       <c r="C80" t="n">
         <v>356.3563563563564</v>
       </c>
+      <c r="D80" t="n">
+        <v>0.04702490303905574</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.006114866270522695</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1434,6 +1918,12 @@
       <c r="C81" t="n">
         <v>876.876876876877</v>
       </c>
+      <c r="D81" t="n">
+        <v>0.1990944718321365</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.01675134073449188</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1447,6 +1937,12 @@
       <c r="C82" t="n">
         <v>512.5125125125126</v>
       </c>
+      <c r="D82" t="n">
+        <v>0.1136723517445955</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0102703990879132</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1460,6 +1956,12 @@
       <c r="C83" t="n">
         <v>784.7847847847848</v>
       </c>
+      <c r="D83" t="n">
+        <v>0.08731917553012608</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.007719278561260396</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1473,6 +1975,12 @@
       <c r="C84" t="n">
         <v>844.8448448448449</v>
       </c>
+      <c r="D84" t="n">
+        <v>0.03338303398073185</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.002903243759989792</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1486,6 +1994,12 @@
       <c r="C85" t="n">
         <v>388.3883883883884</v>
       </c>
+      <c r="D85" t="n">
+        <v>0.05357951308393064</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.006639080556609012</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1499,6 +2013,12 @@
       <c r="C86" t="n">
         <v>560.5605605605606</v>
       </c>
+      <c r="D86" t="n">
+        <v>0.03272019268870455</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.004035022392149887</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1512,6 +2032,12 @@
       <c r="C87" t="n">
         <v>408.4084084084084</v>
       </c>
+      <c r="D87" t="n">
+        <v>0.03106571045979916</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.003864625313561082</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1525,6 +2051,12 @@
       <c r="C88" t="n">
         <v>756.7567567567568</v>
       </c>
+      <c r="D88" t="n">
+        <v>0.1120415757416641</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.008401644394341382</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1538,6 +2070,12 @@
       <c r="C89" t="n">
         <v>376.3763763763764</v>
       </c>
+      <c r="D89" t="n">
+        <v>0.0402490769552224</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.004664685924442771</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1551,6 +2089,12 @@
       <c r="C90" t="n">
         <v>488.4884884884885</v>
       </c>
+      <c r="D90" t="n">
+        <v>0.05450007131991132</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.005365369216350059</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1564,6 +2108,12 @@
       <c r="C91" t="n">
         <v>496.4964964964965</v>
       </c>
+      <c r="D91" t="n">
+        <v>0.04745641867294669</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.004498057879401615</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1577,6 +2127,12 @@
       <c r="C92" t="n">
         <v>732.7327327327328</v>
       </c>
+      <c r="D92" t="n">
+        <v>0.1244320453034519</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01104708046877062</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1590,6 +2146,12 @@
       <c r="C93" t="n">
         <v>496.4964964964965</v>
       </c>
+      <c r="D93" t="n">
+        <v>0.06025758962546727</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.005523746710488667</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1602,6 +2164,12 @@
       </c>
       <c r="C94" t="n">
         <v>692.6926926926927</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.05940369658869992</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.004652301029859121</v>
       </c>
     </row>
   </sheetData>
